--- a/WombaTelemedicine/src/test/resources/excel/Login.xlsx
+++ b/WombaTelemedicine/src/test/resources/excel/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ACF12E26-1CA7-41F3-AD15-A21BA656E446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ECAA6154-CAA8-4AA0-958F-6AAFAE3C8C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Login Credentials </t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">Password </t>
   </si>
   <si>
-    <t xml:space="preserve">PATIENT </t>
-  </si>
-  <si>
     <t xml:space="preserve">testpatient2020@gmail.com  </t>
   </si>
   <si>
@@ -48,17 +45,37 @@
     <t xml:space="preserve">DOCTOR </t>
   </si>
   <si>
-    <t>ronal@gmail.com</t>
+    <t>PATIENT (With ProfileUpdation)</t>
+  </si>
+  <si>
+    <t>PATIENT (Without Email Veriification)</t>
+  </si>
+  <si>
+    <t>pratyushanp01@gmail.com</t>
+  </si>
+  <si>
+    <t>45@#Prashu</t>
+  </si>
+  <si>
+    <t>ronald@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,10 +104,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -99,8 +117,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -387,7 +407,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
   </cols>
@@ -410,27 +430,42 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{D124EC4F-E946-47F7-B78C-9825011271D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
